--- a/bonuses.xlsx
+++ b/bonuses.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -53,10 +53,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Melee Weapon Attack</t>
-  </si>
-  <si>
-    <t>Basic Martial Ability</t>
+    <t>Weapon Proficiency</t>
+  </si>
+  <si>
+    <t>Basic Bonus</t>
   </si>
   <si>
     <t>gray.svg</t>
@@ -65,68 +65,19 @@
     <t>broadsword.svg</t>
   </si>
   <si>
-    <t>×1</t>
-  </si>
-  <si>
-    <t>Melee, Weapon, Basic</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Basic</t>
   </si>
   <si>
     <t>Thane Brimhall</t>
   </si>
   <si>
-    <t>One target within weapon's reach if it's willing or you have a greater attack than it has defense</t>
-  </si>
-  <si>
-    <t>Bacon ipsum dolor amet fatback rump salami picanha, short loin ham hock turducken tongue pig venison pork. Beef ribeye [pastrami andouille]. T-bone jerky boudin ground round tail. Tenderloin turducken tri-tip beef ribs sausage ham doner capicola. Pork loin alcatra fatback sirloin boudin pork belly pig pastrami. Biltong drumstick turkey [venison] corned beef porchetta. Boudin jowl venison bacon, ham pork sausage tenderloin short loin shank biltong.
-Fatback pork chop filet mignon, capicola rump ground round beef ribs. Tongue [prosciutto] sirloin corned beef jerky, hamburger ball tip shankle pork chop picanha salami. Brisket meatloaf swine sausage jowl boudin spare ribs flank chicken pork belly pig bacon frankfurter. Pork tongue cupim fatback flank prosciutto jerky. Ground round ham hock beef ribs biltong porchetta pork doner short ribs ham tenderloin tri-tip pork chop. Biltong ham prosciutto pork chop, pork loin landjaeger chuck rump.</t>
-  </si>
-  <si>
-    <t>Ranged Weapon Attack</t>
-  </si>
-  <si>
-    <t>brown.svg</t>
-  </si>
-  <si>
-    <t>Ranged</t>
-  </si>
-  <si>
-    <t>One target within weapon's range</t>
-  </si>
-  <si>
-    <t>Roll a d20 to hit. Then roll your damage if you did hit.</t>
-  </si>
-  <si>
-    <t>Magic Missile</t>
-  </si>
-  <si>
-    <t>Basic Arcane Ability</t>
-  </si>
-  <si>
-    <t>back.svg</t>
-  </si>
-  <si>
-    <t>3d6+1</t>
-  </si>
-  <si>
-    <t>Arcane, Force</t>
-  </si>
-  <si>
-    <t>One target within implement's range</t>
-  </si>
-  <si>
-    <t>Quick Attack</t>
-  </si>
-  <si>
-    <t>Level 1 Martial Ability</t>
-  </si>
-  <si>
-    <t>Melee, Light Weapon</t>
-  </si>
-  <si>
-    <t>One target within weapon's reach</t>
-  </si>
-  <si>
-    <t>Only usable with [light weapon]</t>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>You get +1 to all [ATTACK] and [DAMAGE] rolls with the specified class of weapon.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,10 +181,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,10 +261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
+  <dimension ref="1:2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -332,7 +279,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7704081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.6530612244898"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="77.015306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.65816326530612"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="117.326530612245"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
   </cols>
@@ -380,7 +327,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -393,14 +340,15 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">"+1"</f>
+        <v>+1</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>17</v>
@@ -416,120 +364,6 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
